--- a/docsdb/Link4Santos.xlsx
+++ b/docsdb/Link4Santos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\salterios\docsdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A44F14E-C049-495D-AEE8-A4D7DDBC5600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44256A67-FF28-437B-BF6F-8B814FFC816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{856310DE-203F-4C0F-B0FD-F6039A356F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{856310DE-203F-4C0F-B0FD-F6039A356F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="2" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="128">
   <si>
     <t>"3/7/2024": { nombre: "NUESTRA SEÑORA DE ITATÍ", enlace: "/salterios/tiempo/santos/julio/09-NUESTRA SEÑORA DE ITATÍ" },</t>
   </si>
@@ -312,10 +321,106 @@
     <t>28/2"</t>
   </si>
   <si>
-    <t>marzo/</t>
-  </si>
-  <si>
-    <t>1/3"</t>
+    <t>01-SAN ALFONSO MARÍA DE LIGORIO</t>
+  </si>
+  <si>
+    <t>04-SAN JUAN MARÍA VIANNEY, presbítero</t>
+  </si>
+  <si>
+    <t>06-LA TRANSFIGURACIÓN DEL SEÑOR</t>
+  </si>
+  <si>
+    <t>08-SANTO DOMINGO, presbítero</t>
+  </si>
+  <si>
+    <t>10-SAN LORENZO, diácono y mártir</t>
+  </si>
+  <si>
+    <t>11-SANTA CLARA, vírgen</t>
+  </si>
+  <si>
+    <t>14-SAN MAXIMILIANO MARÍA KOLBE, presbítero y mártir</t>
+  </si>
+  <si>
+    <t>15-LA ASUNCIÓN DE LA SANTÍSIMA VIRGEN MARÍA</t>
+  </si>
+  <si>
+    <t>20-SAN BERNARDO, abad y doctor de la Iglesia</t>
+  </si>
+  <si>
+    <t>21-SAN PIO X, papa</t>
+  </si>
+  <si>
+    <t>22-LA SANTÍSIMA VIRGEN MARÍA, REINA</t>
+  </si>
+  <si>
+    <t>23-SANTA ROSA DE LIMA, virgen, Patrona de América Latina</t>
+  </si>
+  <si>
+    <t>24-SAN BARTOLOMÉ, apóstol</t>
+  </si>
+  <si>
+    <t>27-SANTA MÓNICA</t>
+  </si>
+  <si>
+    <t>28-SAN AGUSTÍN, obispo y doctor de la iglesia</t>
+  </si>
+  <si>
+    <t>29-EL MARTIRIO DE SAN JUAN BAUTISTA</t>
+  </si>
+  <si>
+    <t>30-SANTA ROSA DE LIMA, virgen, Patrona de América Latina</t>
+  </si>
+  <si>
+    <t>agosto/</t>
+  </si>
+  <si>
+    <t>San Alfonso María De Ligorio</t>
+  </si>
+  <si>
+    <t>San Juan María Vianney, Presbítero</t>
+  </si>
+  <si>
+    <t>La Transfiguración Del Señor</t>
+  </si>
+  <si>
+    <t>Santo Domingo, Presbítero</t>
+  </si>
+  <si>
+    <t>San Lorenzo, Diácono Y Mártir</t>
+  </si>
+  <si>
+    <t>Santa Clara, Vírgen</t>
+  </si>
+  <si>
+    <t>San Maximiliano María Kolbe, Presbítero Y Mártir</t>
+  </si>
+  <si>
+    <t>La Asunción De La Santísima Virgen María</t>
+  </si>
+  <si>
+    <t>San Bernardo, Abad Y Doctor De La Iglesia</t>
+  </si>
+  <si>
+    <t>San Pio X, Papa</t>
+  </si>
+  <si>
+    <t>La Santísima Virgen María, Reina</t>
+  </si>
+  <si>
+    <t>Santa Rosa De Lima, Virgen, Patrona De América Latina</t>
+  </si>
+  <si>
+    <t>San Bartolomé, Apóstol</t>
+  </si>
+  <si>
+    <t>Santa Mónica</t>
+  </si>
+  <si>
+    <t>San Agustín, Obispo Y Doctor De La Iglesia</t>
+  </si>
+  <si>
+    <t>El Martirio De San Juan Bautista</t>
   </si>
 </sst>
 </file>
@@ -746,7 +851,7 @@
         <v>27</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H17" si="0">_xlfn.CONCAT(A7,B7,C7,D7,E7,F7,G7)</f>
+        <f t="shared" ref="H7:H14" si="0">_xlfn.CONCAT(A7,B7,C7,D7,E7,F7,G7)</f>
         <v>"2/1": { nombre: "Santos_Basilio_Magno_Y_Gregorio_Nacianzo", enlace: "/salterios/tiempo/santos/enero/02-SANTOS_BASILIO_MAGNO_Y_GREGORIO_NACIANZO" },</v>
       </c>
     </row>
@@ -1285,316 +1390,703 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E5923-6131-4C6B-907C-D330B920FE3C}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="131.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="0">_xlfn.CONCAT(A6,"/",B6,C6)</f>
+        <v>1/8"</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>H5</f>
+        <v>agosto/</v>
+      </c>
+      <c r="I6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="str">
+        <f>_xlfn.CONCAT(C6,D6,E6,F6,G6,H6,I6,J6)</f>
+        <v>"1/8": { nombre: "San Alfonso María De Ligorio", enlace: "/salterios/tiempo/santos/agosto/01-SAN ALFONSO MARÍA DE LIGORIO" },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B22" si="1">B6</f>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>_xlfn.CONCAT(A7,"/",B7,C7)</f>
+        <v>4/8"</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" ref="H7:H22" si="2">H6</f>
+        <v>agosto/</v>
+      </c>
+      <c r="I7" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K22" si="3">_xlfn.CONCAT(C7,D7,E7,F7,G7,H7,I7,J7)</f>
+        <v>"4/8": { nombre: "San Juan María Vianney, Presbítero", enlace: "/salterios/tiempo/santos/agosto/04-SAN JUAN MARÍA VIANNEY, presbítero" },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" ref="D8:D22" si="4">_xlfn.CONCAT(A8,"/",B8,C8)</f>
+        <v>6/8"</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>F5</f>
-        <v>marzo/</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="str">
-        <f>_xlfn.CONCAT(A6,B6,C6,D6,E6,F6,G6,H6)</f>
-        <v>"1/3": { nombre: "La Presentación Del Señor", enlace: "/salterios/tiempo/santos/marzo/02-LA PRESENTACIÓN DEL SEÑOR" },</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>"6/8": { nombre: "La Transfiguración Del Señor", enlace: "/salterios/tiempo/santos/agosto/06-LA TRANSFIGURACIÓN DEL SEÑOR" },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>8/8"</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" ref="F7:F13" si="0">F6</f>
-        <v>marzo/</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" ref="I7:I13" si="1">_xlfn.CONCAT(A7,B7,C7,D7,E7,F7,G7,H7)</f>
-        <v>"2/2": { nombre: "Santa Águeda, Virgen Y Mártir", enlace: "/salterios/tiempo/santos/marzo/04-SANTA ÁGUEDA, virgen y mártir" },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>"8/8": { nombre: "Santo Domingo, Presbítero", enlace: "/salterios/tiempo/santos/agosto/08-SANTO DOMINGO, presbítero" },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10/8"</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>marzo/</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>"10/8": { nombre: "San Lorenzo, Diácono Y Mártir", enlace: "/salterios/tiempo/santos/agosto/10-SAN LORENZO, diácono y mártir" },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
-        <v>"17/2": { nombre: "San Felipe De Jesús", enlace: "/salterios/tiempo/santos/marzo/05-SAN FELIPE DE JESÚS" },</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11/8"</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>marzo/</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>"11/8": { nombre: "Santa Clara, Vírgen", enlace: "/salterios/tiempo/santos/agosto/11-SANTA CLARA, vírgen" },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
-        <v>"21/2": { nombre: "Santos Pablo Miki Y Compañeros", enlace: "/salterios/tiempo/santos/marzo/06-SANTOS PABLO MIKI Y COMPAÑEROS" },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>14/8"</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>marzo/</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="str">
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>"14/8": { nombre: "San Maximiliano María Kolbe, Presbítero Y Mártir", enlace: "/salterios/tiempo/santos/agosto/14-SAN MAXIMILIANO MARÍA KOLBE, presbítero y mártir" },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
-        <v>"24/2": { nombre: "Santa Escolástica, Virgen", enlace: "/salterios/tiempo/santos/marzo/10-SANTA ESCOLÁSTICA, virgen" },</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>15/8"</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>marzo/</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>"15/8": { nombre: "La Asunción De La Santísima Virgen María", enlace: "/salterios/tiempo/santos/agosto/15-LA ASUNCIÓN DE LA SANTÍSIMA VIRGEN MARÍA" },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="1"/>
-        <v>"25/2": { nombre: "Santos Cirilo, Monje Y Metodio, Obispo", enlace: "/salterios/tiempo/santos/marzo/14-SANTOS CIRILO, monje y METODIO, obispo" },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20/8"</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>marzo/</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="str">
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
+        <v>"20/8": { nombre: "San Bernardo, Abad Y Doctor De La Iglesia", enlace: "/salterios/tiempo/santos/agosto/20-SAN BERNARDO, abad y doctor de la Iglesia" },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
-        <v>"26/2": { nombre: "La Cátedra De San Pedro, Apóstol", enlace: "/salterios/tiempo/santos/marzo/22-LA CÁTEDRA DE SAN PEDRO, APÓSTOL" },</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>21/8"</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>marzo/</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>"21/8": { nombre: "San Pio X, Papa", enlace: "/salterios/tiempo/santos/agosto/21-SAN PIO X, papa" },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
-        <v>"28/2": { nombre: "San Policarpo, Obispo Y Mártir", enlace: "/salterios/tiempo/santos/marzo/23-SAN POLICARPO, obispo y mártir" },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>22/8"</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>"22/8": { nombre: "La Santísima Virgen María, Reina", enlace: "/salterios/tiempo/santos/agosto/22-LA SANTÍSIMA VIRGEN MARÍA, REINA" },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>23/8"</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>"23/8": { nombre: "Santa Rosa De Lima, Virgen, Patrona De América Latina", enlace: "/salterios/tiempo/santos/agosto/23-SANTA ROSA DE LIMA, virgen, Patrona de América Latina" },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>24/8"</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>"24/8": { nombre: "San Bartolomé, Apóstol", enlace: "/salterios/tiempo/santos/agosto/24-SAN BARTOLOMÉ, apóstol" },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>27/8"</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>"27/8": { nombre: "Santa Mónica", enlace: "/salterios/tiempo/santos/agosto/27-SANTA MÓNICA" },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>28/8"</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>"28/8": { nombre: "San Agustín, Obispo Y Doctor De La Iglesia", enlace: "/salterios/tiempo/santos/agosto/28-SAN AGUSTÍN, obispo y doctor de la iglesia" },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>29/8"</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>"29/8": { nombre: "El Martirio De San Juan Bautista", enlace: "/salterios/tiempo/santos/agosto/29-EL MARTIRIO DE SAN JUAN BAUTISTA" },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>30/8"</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>agosto/</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v>"30/8": { nombre: "Santa Rosa De Lima, Virgen, Patrona De América Latina", enlace: "/salterios/tiempo/santos/agosto/30-SANTA ROSA DE LIMA, virgen, Patrona de América Latina" },</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docsdb/Link4Santos.xlsx
+++ b/docsdb/Link4Santos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\salterios\docsdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44256A67-FF28-437B-BF6F-8B814FFC816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD17BF3E-011B-4D29-A70D-FF59CBB2FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{856310DE-203F-4C0F-B0FD-F6039A356F0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{856310DE-203F-4C0F-B0FD-F6039A356F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Enero" sheetId="2" r:id="rId1"/>
@@ -482,9 +482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -522,7 +522,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -628,7 +628,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -770,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,28 +780,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68389E4D-1CA6-42BB-834A-EE7B4AA61875}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="207" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -828,7 +828,7 @@
         <v>"1/1": { nombre: "Santa_María_Madre_De_Dios", enlace: "/salterios/tiempo/santos/enero/01-SANTA_MARÍA_MADRE_DE_DIOS" },</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -855,7 +855,7 @@
         <v>"2/1": { nombre: "Santos_Basilio_Magno_Y_Gregorio_Nacianzo", enlace: "/salterios/tiempo/santos/enero/02-SANTOS_BASILIO_MAGNO_Y_GREGORIO_NACIANZO" },</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -882,7 +882,7 @@
         <v>"17/1": { nombre: "San Antonio, Abad", enlace: "/salterios/tiempo/santos/enero/17-SAN ANTONIO, ABAD" },</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -909,7 +909,7 @@
         <v>"21/1": { nombre: "Santa Inés, Virgen Y Mártir", enlace: "/salterios/tiempo/santos/enero/21-SANTA INÉS, virgen y mártir" },</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>"24/1": { nombre: "Santa María, Reina De La Paz-San Francisco De Sales-San Francisco De Sales", enlace: "/salterios/tiempo/santos/enero/24-SANTA MARÍA, REINA DE LA PAZ-SAN FRANCISCO DE SALES-SAN FRANCISCO DE SALES" },</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -963,7 +963,7 @@
         <v>"25/1": { nombre: "La Conversión De San Pablo", enlace: "/salterios/tiempo/santos/enero/25-LA CONVERSIÓN DE SAN PABLO" },</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -990,7 +990,7 @@
         <v>"26/1": { nombre: "Santos Timoteo Y Tito, Obispos", enlace: "/salterios/tiempo/santos/enero/26-SANTOS TIMOTEO Y TITO, obispos" },</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>"28/1": { nombre: "Santo Tomás De Aquino", enlace: "/salterios/tiempo/santos/enero/28-SANTO TOMÁS DE AQUINO" },</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1044,28 +1044,28 @@
         <v>"31/1": { nombre: "San Juan Bosco", enlace: "/salterios/tiempo/santos/enero/31-SAN JUAN BOSCO" },</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
     </row>
   </sheetData>
@@ -1081,30 +1081,30 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="131.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>"1/2": { nombre: "La Presentación Del Señor", enlace: "/salterios/tiempo/santos/febrero/02-LA PRESENTACIÓN DEL SEÑOR" },</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>"2/2": { nombre: "Santa Águeda, Virgen Y Mártir", enlace: "/salterios/tiempo/santos/febrero/04-SANTA ÁGUEDA, virgen y mártir" },</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>"17/2": { nombre: "San Felipe De Jesús", enlace: "/salterios/tiempo/santos/febrero/05-SAN FELIPE DE JESÚS" },</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>"21/2": { nombre: "Santos Pablo Miki Y Compañeros", enlace: "/salterios/tiempo/santos/febrero/06-SANTOS PABLO MIKI Y COMPAÑEROS" },</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>"24/2": { nombre: "Santa Escolástica, Virgen", enlace: "/salterios/tiempo/santos/febrero/10-SANTA ESCOLÁSTICA, virgen" },</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>"25/2": { nombre: "Santos Cirilo, Monje Y Metodio, Obispo", enlace: "/salterios/tiempo/santos/febrero/14-SANTOS CIRILO, monje y METODIO, obispo" },</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>"26/2": { nombre: "La Cátedra De San Pedro, Apóstol", enlace: "/salterios/tiempo/santos/febrero/22-LA CÁTEDRA DE SAN PEDRO, APÓSTOL" },</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1352,35 +1352,35 @@
         <v>"28/2": { nombre: "San Policarpo, Obispo Y Mártir", enlace: "/salterios/tiempo/santos/febrero/23-SAN POLICARPO, obispo y mártir" },</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
     </row>
   </sheetData>
@@ -1392,29 +1392,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E5923-6131-4C6B-907C-D330B920FE3C}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" customWidth="1"/>
+    <col min="10" max="10" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="131.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>8</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>"1/8": { nombre: "San Alfonso María De Ligorio", enlace: "/salterios/tiempo/santos/agosto/01-SAN ALFONSO MARÍA DE LIGORIO" },</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>"4/8": { nombre: "San Juan María Vianney, Presbítero", enlace: "/salterios/tiempo/santos/agosto/04-SAN JUAN MARÍA VIANNEY, presbítero" },</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>"6/8": { nombre: "La Transfiguración Del Señor", enlace: "/salterios/tiempo/santos/agosto/06-LA TRANSFIGURACIÓN DEL SEÑOR" },</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>"8/8": { nombre: "Santo Domingo, Presbítero", enlace: "/salterios/tiempo/santos/agosto/08-SANTO DOMINGO, presbítero" },</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>"10/8": { nombre: "San Lorenzo, Diácono Y Mártir", enlace: "/salterios/tiempo/santos/agosto/10-SAN LORENZO, diácono y mártir" },</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>"11/8": { nombre: "Santa Clara, Vírgen", enlace: "/salterios/tiempo/santos/agosto/11-SANTA CLARA, vírgen" },</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>"14/8": { nombre: "San Maximiliano María Kolbe, Presbítero Y Mártir", enlace: "/salterios/tiempo/santos/agosto/14-SAN MAXIMILIANO MARÍA KOLBE, presbítero y mártir" },</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>"15/8": { nombre: "La Asunción De La Santísima Virgen María", enlace: "/salterios/tiempo/santos/agosto/15-LA ASUNCIÓN DE LA SANTÍSIMA VIRGEN MARÍA" },</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>"20/8": { nombre: "San Bernardo, Abad Y Doctor De La Iglesia", enlace: "/salterios/tiempo/santos/agosto/20-SAN BERNARDO, abad y doctor de la Iglesia" },</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>"21/8": { nombre: "San Pio X, Papa", enlace: "/salterios/tiempo/santos/agosto/21-SAN PIO X, papa" },</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>"22/8": { nombre: "La Santísima Virgen María, Reina", enlace: "/salterios/tiempo/santos/agosto/22-LA SANTÍSIMA VIRGEN MARÍA, REINA" },</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>"23/8": { nombre: "Santa Rosa De Lima, Virgen, Patrona De América Latina", enlace: "/salterios/tiempo/santos/agosto/23-SANTA ROSA DE LIMA, virgen, Patrona de América Latina" },</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>"24/8": { nombre: "San Bartolomé, Apóstol", enlace: "/salterios/tiempo/santos/agosto/24-SAN BARTOLOMÉ, apóstol" },</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>"27/8": { nombre: "Santa Mónica", enlace: "/salterios/tiempo/santos/agosto/27-SANTA MÓNICA" },</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>28</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>"28/8": { nombre: "San Agustín, Obispo Y Doctor De La Iglesia", enlace: "/salterios/tiempo/santos/agosto/28-SAN AGUSTÍN, obispo y doctor de la iglesia" },</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>29</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>"29/8": { nombre: "El Martirio De San Juan Bautista", enlace: "/salterios/tiempo/santos/agosto/29-EL MARTIRIO DE SAN JUAN BAUTISTA" },</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2101,23 +2101,23 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>"3/7": { nombre: "Santo Tomás, Apóstol", enlace: "/salterios/tiempo/santos/julio/03-SANTO TOMÁS, apóstol" },</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>"9/7": { nombre: "Nuestra Señora De Itatí", enlace: "/salterios/tiempo/santos/julio/09-NUESTRA SEÑORA DE ITATÍ" },</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>"9/7": { nombre: "Nuestra Señora Del Rosario De Chiquinquirá, Patrona De Colombia", enlace: "/salterios/tiempo/santos/julio/09-NUESTRA SEÑORA DEL ROSARIO DE CHIQUINQUIRÁ, patrona de Colombia" },</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>"11/7": { nombre: "San Benito Abad, Patrono De Europa", enlace: "/salterios/tiempo/santos/julio/11-SAN BENITO ABAD, patrono de Europa" },</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>"15/7": { nombre: "San Buenaventura, Obispo Y Doctor De La Iglesia", enlace: "/salterios/tiempo/santos/julio/15-SAN BUENAVENTURA, obispo y doctor de la Iglesia" },</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>"16/7": { nombre: "Nuestra Señora Del Carmen", enlace: "/salterios/tiempo/santos/julio/16-NUESTRA SEÑORA DEL CARMEN" },</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>"22/7": { nombre: "Santa María Magdalena", enlace: "/salterios/tiempo/santos/julio/22-SANTA MARÍA MAGDALENA" },</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>"24/7": { nombre: "San Francisco Solano, Presbítero", enlace: "/salterios/tiempo/santos/julio/24-SAN FRANCISCO SOLANO, presbítero" },</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>"25/7": { nombre: "Santiago, Apóstol", enlace: "/salterios/tiempo/santos/julio/25-SANTIAGO, apóstol" },</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>"26/7": { nombre: "Santos Joaquín Y Ana, Padres De La Santísima Virgen María", enlace: "/salterios/tiempo/santos/julio/26-SANTOS JOAQUÍN Y ANA, padres de la Santísima Virgen María" },</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>"29/7": { nombre: "Santa Marta", enlace: "/salterios/tiempo/santos/julio/29-SANTA MARTA" },</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
